--- a/data/TesslaServer Number of Nodes Benchmark.xlsx
+++ b/data/TesslaServer Number of Nodes Benchmark.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -120,64 +120,34 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -187,6 +157,36 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thick">
           <color theme="4"/>
@@ -194,22 +194,22 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.##0\ &quot;s&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.##0\ &quot;s&quot;"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -220,6 +220,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF77200"/>
+      <color rgb="FF0C4E6C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -257,7 +263,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="0C4E6C"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -380,7 +386,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="F77200"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -452,7 +458,7 @@
             <c:numRef>
               <c:f>Tabelle1!$B$48:$F$48</c:f>
               <c:numCache>
-                <c:formatCode>0,##0\ "s"</c:formatCode>
+                <c:formatCode>0.##0\ "s"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.513020372390747</c:v>
@@ -484,11 +490,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1788834224"/>
-        <c:axId val="1788561376"/>
+        <c:axId val="-1551028128"/>
+        <c:axId val="-1551012064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1788834224"/>
+        <c:axId val="-1551028128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +593,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788561376"/>
+        <c:crossAx val="-1551012064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,7 +601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1788561376"/>
+        <c:axId val="-1551012064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +624,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -651,7 +657,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -702,7 +708,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788834224"/>
+        <c:crossAx val="-1551028128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,25 +1385,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Version1.5" displayName="Version1.5" ref="B27:F48" totalsRowCount="1" tableBorderDxfId="21">
   <autoFilter ref="B27:F47"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="8" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="16" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="32" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="64" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="128" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="8" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="16" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="32" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="64" totalsRowFunction="average" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="128" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Version2" displayName="Version2" ref="B51:F72" totalsRowCount="1" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Version2" displayName="Version2" ref="B51:F72" totalsRowCount="1" tableBorderDxfId="10">
   <autoFilter ref="B51:F71"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="8" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="16" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="32" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="64" totalsRowFunction="average" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="128" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="1" name="8" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="16" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="32" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="64" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="128" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/data/TesslaServer Number of Nodes Benchmark.xlsx
+++ b/data/TesslaServer Number of Nodes Benchmark.xlsx
@@ -222,6 +222,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF99B222"/>
       <color rgb="FFF77200"/>
       <color rgb="FF0C4E6C"/>
     </mruColors>
@@ -272,6 +273,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.#0&quot;s&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -332,7 +334,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$3:$F$3</c:f>
+              <c:f>Tabelle1!$B$51:$F$51</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -395,7 +397,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.##0\ &quot;s&quot;" sourceLinked="0"/>
+            <c:numFmt formatCode="0.#0&quot;s&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -454,6 +456,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$51:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$48:$F$48</c:f>
@@ -479,6 +504,130 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99B222"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.#0&quot;s&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$51:$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$72:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.##0\ "s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.522549259662628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.542203295230865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66285058259964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81318734884262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.163501346111298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -488,13 +637,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1551028128"/>
-        <c:axId val="-1551012064"/>
+        <c:gapWidth val="240"/>
+        <c:overlap val="-50"/>
+        <c:axId val="1096612352"/>
+        <c:axId val="1092268176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1551028128"/>
+        <c:axId val="1096612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +742,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1551012064"/>
+        <c:crossAx val="1092268176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1551012064"/>
+        <c:axId val="1092268176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +857,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1551028128"/>
+        <c:crossAx val="1096612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1674,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" activeCellId="1" sqref="B3:F3 B24:F24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2493,165 +2642,365 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="B52" s="1">
+        <v>0.53354501724243197</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.54845619201660201</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.61131095886230502</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.78351402282714799</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.02741503715515</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="B53" s="1">
+        <v>0.51016092300414995</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.53323698043823198</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.59818410873413097</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.740794897079468</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.0386769771575901</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="B54" s="1">
+        <v>0.500774145126343</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.54578900337219205</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.63055515289306596</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.71818804740905795</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.0571370124816899</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="B55" s="1">
+        <v>0.493863105773926</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.55186080932617199</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.59437394142150901</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.730970859527588</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.2928390502929701</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="B56" s="1">
+        <v>0.48942685127258301</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.56348896026611295</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.59841990470886197</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.74689507484436002</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.23119497299194</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="B57" s="1">
+        <v>0.52097415924072299</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.53903985023498502</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0411138534545901</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.73658919334411599</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.2356150150299099</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="B58" s="1">
+        <v>0.49592399597168002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.547535181045532</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.67556595802307096</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.72076082229614302</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.22146391868591</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="B59" s="1">
+        <v>0.50746703147888195</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.54117393493652299</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.61819791793823198</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.74481511116027799</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.26230096817017</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="B60" s="1">
+        <v>0.48314499855041498</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.55856800079345703</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.57853102684020996</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.74814105033874501</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.2286069393157999</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="B61" s="1">
+        <v>0.506514072418213</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.55402207374572798</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.578740835189819</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.2706658840179399</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.3420820236206099</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="B62" s="1">
+        <v>0.48707890510559099</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.53865599632263195</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.83613109588623002</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.73877310752868697</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.0598461627960201</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="B63" s="1">
+        <v>0.50673103332519498</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.52590084075927701</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.57418894767761197</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.72024917602539096</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.17408299446106</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="B64" s="1">
+        <v>0.54540205001831099</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.53032803535461404</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.58634996414184604</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.78172087669372603</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.2739439010620099</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="B65" s="1">
+        <v>0.51839303970336903</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.56315398216247603</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.596504926681519</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.88818883895874001</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.21792817115784</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="B66" s="1">
+        <v>0.56059980392456099</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.52780795097351096</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.60645198822021495</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1.2142860889434799</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.2782328128814699</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="B67" s="1">
+        <v>0.604972124099731</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.52798700332641602</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.60209178924560502</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.00575995445251</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.2471001148223899</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="B68" s="1">
+        <v>0.54974198341369596</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.55692410469055198</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.65127921104431197</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.73771595954894997</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.04268598556519</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="B69" s="1">
+        <v>0.55014991760253895</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.52314305305481001</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.64523100852966297</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.74961495399475098</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.0271649360656701</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="B70" s="1">
+        <v>0.54052686691284202</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.53408098220825195</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.05106902122498</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.73509097099304199</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.98725008964538596</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="B71" s="1">
+        <v>0.54559516906738303</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.53291296958923295</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.58272004127502397</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.75101208686828602</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1.0244598388671899</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="e">
+      <c r="B72" s="1">
         <f>SUBTOTAL(101,Version2[8])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C72" s="1" t="e">
+        <v>0.52254925966262822</v>
+      </c>
+      <c r="C72" s="1">
         <f>SUBTOTAL(101,Version2[16])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D72" s="1" t="e">
+        <v>0.54220329523086541</v>
+      </c>
+      <c r="D72" s="1">
         <f>SUBTOTAL(101,Version2[32])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E72" s="1" t="e">
+        <v>0.66285058259964003</v>
+      </c>
+      <c r="E72" s="1">
         <f>SUBTOTAL(101,Version2[64])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="1" t="e">
+        <v>0.81318734884262034</v>
+      </c>
+      <c r="F72" s="1">
         <f>SUBTOTAL(101,Version2[128])</f>
-        <v>#DIV/0!</v>
+        <v>1.1635013461112984</v>
       </c>
     </row>
   </sheetData>
